--- a/Benchmark Results Excel Sheets/2ratings_total.xlsx
+++ b/Benchmark Results Excel Sheets/2ratings_total.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\School\bachelor-final\Benchmark Results Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/Documents/School/Bachelor/bachelor-final/Benchmark Results Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBFD91-B690-4CE2-88E4-0C03AD69940B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B7C1B0-5F44-D44B-932A-DE6DAC9007B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{5F08F5A3-5784-45C9-A29F-24CA0378BFEA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" xr2:uid="{5F08F5A3-5784-45C9-A29F-24CA0378BFEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$208:$D$215</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$208:$D$215</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$208:$E$215</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$208:$D$215</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$208:$E$215</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$208:$D$215</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$208:$E$215</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$208:$D$215</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$208:$E$215</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,6 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="33">
   <si>
     <t>0</t>
   </si>
@@ -120,6 +132,15 @@
   </si>
   <si>
     <t>TFIDF TRIGRAM</t>
+  </si>
+  <si>
+    <t>K-NEIGHBOURS</t>
+  </si>
+  <si>
+    <t>GRADIENT BOOSTING</t>
+  </si>
+  <si>
+    <t>MNB</t>
   </si>
 </sst>
 </file>
@@ -360,6 +381,30 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,46 +432,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -437,6 +447,985 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Rating Classifier Best Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$208:$E$215</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>K-NEIGHBOURS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DECISION TREE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GRADIENT BOOSTING</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RANDOM FOREST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MNB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LOGISTIC REGRESSION</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MULTILAYER PERCEPTRON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$208:$D$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.75074142300000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75084403600000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88463324899999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89325880000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89663266399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94399945900000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94831633199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95257159800000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F103-1446-AAF0-B1CDB60D0192}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="423841439"/>
+        <c:axId val="427410927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="423841439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427410927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="427410927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423841439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>39509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>98779</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>28221</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2784ABB-C7CA-F745-9094-8A873FF19404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,208 +1725,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BAE464-54F8-48C9-AF67-86A728842A69}">
-  <dimension ref="A1:BL199"/>
+  <dimension ref="A1:BL215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BN141" sqref="BN141"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:63" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="G2" s="4" t="s">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="N2" s="4" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="6"/>
-      <c r="U2" s="4" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="U2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="6"/>
-      <c r="AB2" s="4" t="s">
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="16"/>
+      <c r="AB2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="6"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="16"/>
+      <c r="AI2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="6"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="16"/>
+      <c r="AP2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="6"/>
-      <c r="AW2" s="4" t="s">
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="16"/>
+      <c r="AW2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="6"/>
-      <c r="BD2" s="4" t="s">
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="16"/>
+      <c r="BD2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="6"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="16"/>
       <c r="BK2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="9"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="9"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="9"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="9"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="9"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="9"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="9"/>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="19"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="19"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="19"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="19"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="19"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="19"/>
     </row>
-    <row r="4" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="12"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="12"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="12"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="12"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="12"/>
+    <row r="4" spans="1:63" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="22"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="22"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="22"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="22"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="22"/>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,11 +2051,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1208,14 +2200,14 @@
       <c r="BI7">
         <v>0.89224137931034486</v>
       </c>
-      <c r="BK7" s="22">
+      <c r="BK7" s="6">
         <f>MAX(L7,S7,Z7,AG7,AN7,AU7,BB7,BI7)</f>
         <v>0.92030692177674089</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1365,9 +2357,9 @@
         <v>0.92056927526904675</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1517,9 +2509,9 @@
         <v>0.920258621</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1669,11 +2661,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E11" s="13" t="s">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="8"/>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,9 +2791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,14 +2938,14 @@
       <c r="BI12">
         <v>0.90293566709635831</v>
       </c>
-      <c r="BK12" s="22">
+      <c r="BK12" s="6">
         <f t="shared" si="0"/>
         <v>0.92241379300000004</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2103,9 +3095,9 @@
         <v>0.92241379300000004</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2255,9 +3247,9 @@
         <v>0.92241379300000004</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2407,11 +3399,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E16" s="13" t="s">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="8"/>
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2537,9 +3529,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+    <row r="17" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2684,14 +3676,14 @@
       <c r="BI17">
         <v>0.9040048452253534</v>
       </c>
-      <c r="BK17" s="22">
+      <c r="BK17" s="6">
         <f t="shared" si="0"/>
         <v>0.92561747672641703</v>
       </c>
     </row>
-    <row r="18" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+    <row r="18" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2841,9 +3833,9 @@
         <v>0.92564242265549468</v>
       </c>
     </row>
-    <row r="19" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+    <row r="19" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2993,9 +3985,9 @@
         <v>0.9256465517241379</v>
       </c>
     </row>
-    <row r="20" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+    <row r="20" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3145,11 +4137,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="21" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E21" s="13" t="s">
+    <row r="21" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="8"/>
       <c r="H21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3275,9 +4267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+    <row r="22" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3422,14 +4414,14 @@
       <c r="BI22">
         <v>0.911610705516401</v>
       </c>
-      <c r="BK22" s="22">
+      <c r="BK22" s="6">
         <f t="shared" si="0"/>
         <v>0.93104413296439525</v>
       </c>
     </row>
-    <row r="23" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+    <row r="23" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
@@ -3579,9 +4571,9 @@
         <v>0.93106246065608167</v>
       </c>
     </row>
-    <row r="24" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+    <row r="24" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2" t="s">
         <v>7</v>
       </c>
@@ -3731,9 +4723,9 @@
         <v>0.93103448275862066</v>
       </c>
     </row>
-    <row r="25" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+    <row r="25" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3883,11 +4875,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="26" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
+    <row r="26" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="8"/>
       <c r="H26" s="1" t="s">
         <v>0</v>
       </c>
@@ -4013,9 +5005,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+    <row r="27" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4160,14 +5152,14 @@
       <c r="BI27">
         <v>0.91269565576126421</v>
       </c>
-      <c r="BK27" s="22">
+      <c r="BK27" s="6">
         <f t="shared" si="0"/>
         <v>0.93106148899999996</v>
       </c>
     </row>
-    <row r="28" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+    <row r="28" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4317,9 +5309,9 @@
         <v>0.93116652099999997</v>
       </c>
     </row>
-    <row r="29" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+    <row r="29" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
@@ -4469,9 +5461,9 @@
         <v>0.93103448300000002</v>
       </c>
     </row>
-    <row r="30" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+    <row r="30" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4621,11 +5613,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="31" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
+    <row r="31" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="8"/>
       <c r="H31">
         <v>0</v>
       </c>
@@ -4751,9 +5743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+    <row r="32" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32" t="s">
         <v>5</v>
       </c>
@@ -4898,14 +5890,14 @@
       <c r="BI32">
         <v>0.90295381575787215</v>
       </c>
-      <c r="BK32" s="22">
+      <c r="BK32" s="6">
         <f t="shared" si="0"/>
         <v>0.92779641800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" t="s">
         <v>6</v>
       </c>
@@ -5055,9 +6047,9 @@
         <v>0.92779327499999997</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34" t="s">
         <v>7</v>
       </c>
@@ -5207,9 +6199,9 @@
         <v>0.92780172400000005</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
       <c r="G35" t="s">
         <v>8</v>
       </c>
@@ -5359,81 +6351,81 @@
         <v>928</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="BK36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="20"/>
-      <c r="AX37" s="20"/>
-      <c r="AY37" s="20"/>
-      <c r="AZ37" s="20"/>
-      <c r="BA37" s="20"/>
-      <c r="BB37" s="20"/>
-      <c r="BC37" s="20"/>
-      <c r="BD37" s="20"/>
-      <c r="BE37" s="20"/>
-      <c r="BF37" s="20"/>
-      <c r="BG37" s="20"/>
-      <c r="BH37" s="20"/>
-      <c r="BI37" s="20"/>
-      <c r="BJ37" s="20"/>
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
       <c r="BK37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="H38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5559,16 +6551,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="E39" s="13" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="E39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="1" t="s">
         <v>5</v>
       </c>
@@ -5656,7 +6648,7 @@
       <c r="AM39">
         <v>0.92643678200000001</v>
       </c>
-      <c r="AN39" s="19">
+      <c r="AN39" s="4">
         <v>0.92674395600000004</v>
       </c>
       <c r="AP39" s="1" t="s">
@@ -5713,17 +6705,17 @@
       <c r="BI39">
         <v>0.91487674600000002</v>
       </c>
-      <c r="BK39" s="22">
+      <c r="BK39" s="6">
         <f t="shared" si="0"/>
         <v>0.928819489</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="1" t="s">
         <v>6</v>
       </c>
@@ -5873,12 +6865,12 @@
         <v>0.92897687100000004</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="1" t="s">
         <v>7</v>
       </c>
@@ -6028,12 +7020,12 @@
         <v>0.92887931000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
+    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
@@ -6183,14 +7175,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="E43" s="13" t="s">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="E43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="8"/>
       <c r="H43" s="1">
         <v>0</v>
       </c>
@@ -6316,9 +7308,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
+    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="2" t="s">
         <v>5</v>
       </c>
@@ -6388,7 +7380,7 @@
       <c r="AF44">
         <v>0.92858075699999998</v>
       </c>
-      <c r="AG44" s="19">
+      <c r="AG44" s="4">
         <v>0.92888926199999999</v>
       </c>
       <c r="AI44" s="1" t="s">
@@ -6463,14 +7455,14 @@
       <c r="BI44">
         <v>0.89977711800000004</v>
       </c>
-      <c r="BK44" s="22">
+      <c r="BK44" s="6">
         <f t="shared" si="0"/>
         <v>0.93100163300000005</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
+    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="2" t="s">
         <v>6</v>
       </c>
@@ -6620,9 +7612,9 @@
         <v>0.93104705600000004</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
+    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="2" t="s">
         <v>7</v>
       </c>
@@ -6772,9 +7764,9 @@
         <v>0.93103448300000002</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
+    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
@@ -6924,11 +7916,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E48" s="13" t="s">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="8"/>
       <c r="H48" s="1" t="s">
         <v>0</v>
       </c>
@@ -7054,9 +8046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
+    <row r="49" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
@@ -7201,14 +8193,14 @@
       <c r="BI49">
         <v>0.90514319600000004</v>
       </c>
-      <c r="BK49" s="22">
+      <c r="BK49" s="6">
         <f t="shared" si="0"/>
         <v>0.94499154100000005</v>
       </c>
     </row>
-    <row r="50" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
+    <row r="50" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
@@ -7358,9 +8350,9 @@
         <v>0.94520752799999996</v>
       </c>
     </row>
-    <row r="51" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
+    <row r="51" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="1" t="s">
         <v>7</v>
       </c>
@@ -7510,9 +8502,9 @@
         <v>0.94504310300000005</v>
       </c>
     </row>
-    <row r="52" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
+    <row r="52" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="1" t="s">
         <v>8</v>
       </c>
@@ -7662,11 +8654,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="53" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E53" s="13" t="s">
+    <row r="53" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="8"/>
       <c r="H53" s="1" t="s">
         <v>0</v>
       </c>
@@ -7792,9 +8784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
+    <row r="54" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
@@ -7939,14 +8931,14 @@
       <c r="BI54">
         <v>0.91810344799999999</v>
       </c>
-      <c r="BK54" s="22">
+      <c r="BK54" s="6">
         <f t="shared" si="0"/>
         <v>0.93642693700000001</v>
       </c>
     </row>
-    <row r="55" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
+    <row r="55" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="1" t="s">
         <v>6</v>
       </c>
@@ -8096,9 +9088,9 @@
         <v>0.93643364200000001</v>
       </c>
     </row>
-    <row r="56" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
+    <row r="56" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="1" t="s">
         <v>7</v>
       </c>
@@ -8248,9 +9240,9 @@
         <v>0.93642241400000004</v>
       </c>
     </row>
-    <row r="57" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E57" s="17"/>
-      <c r="F57" s="18"/>
+    <row r="57" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="1" t="s">
         <v>8</v>
       </c>
@@ -8400,11 +9392,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="58" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E58" s="13" t="s">
+    <row r="58" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="8"/>
       <c r="H58" s="1" t="s">
         <v>0</v>
       </c>
@@ -8530,9 +9522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E59" s="15"/>
-      <c r="F59" s="16"/>
+    <row r="59" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="1" t="s">
         <v>5</v>
       </c>
@@ -8677,14 +9669,14 @@
       <c r="BI59">
         <v>0.91809121800000004</v>
       </c>
-      <c r="BK59" s="22">
+      <c r="BK59" s="6">
         <f t="shared" si="0"/>
         <v>0.94393882699999998</v>
       </c>
     </row>
-    <row r="60" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
+    <row r="60" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="1" t="s">
         <v>6</v>
       </c>
@@ -8834,9 +9826,9 @@
         <v>0.94399150899999995</v>
       </c>
     </row>
-    <row r="61" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
+    <row r="61" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E61" s="9"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="1" t="s">
         <v>7</v>
       </c>
@@ -8986,9 +9978,9 @@
         <v>0.94396551699999998</v>
       </c>
     </row>
-    <row r="62" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
+    <row r="62" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="1" t="s">
         <v>8</v>
       </c>
@@ -9138,11 +10130,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="63" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E63" s="13" t="s">
+    <row r="63" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="14"/>
+      <c r="F63" s="8"/>
       <c r="H63" s="1" t="s">
         <v>0</v>
       </c>
@@ -9268,9 +10260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+    <row r="64" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="1" t="s">
         <v>5</v>
       </c>
@@ -9415,14 +10407,14 @@
       <c r="BI64">
         <v>0.91590824000000004</v>
       </c>
-      <c r="BK64" s="22">
+      <c r="BK64" s="6">
         <f t="shared" si="0"/>
         <v>0.94499154100000005</v>
       </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
+    <row r="65" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="1" t="s">
         <v>6</v>
       </c>
@@ -9572,9 +10564,9 @@
         <v>0.94520752799999996</v>
       </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="1" t="s">
         <v>7</v>
       </c>
@@ -9724,9 +10716,9 @@
         <v>0.94504310300000005</v>
       </c>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="1" t="s">
         <v>8</v>
       </c>
@@ -9876,93 +10868,93 @@
         <v>928</v>
       </c>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BK68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="20"/>
-      <c r="AA69" s="20"/>
-      <c r="AB69" s="20"/>
-      <c r="AC69" s="20"/>
-      <c r="AD69" s="20"/>
-      <c r="AE69" s="20"/>
-      <c r="AF69" s="20"/>
-      <c r="AG69" s="20"/>
-      <c r="AH69" s="20"/>
-      <c r="AI69" s="20"/>
-      <c r="AJ69" s="20"/>
-      <c r="AK69" s="20"/>
-      <c r="AL69" s="20"/>
-      <c r="AM69" s="20"/>
-      <c r="AN69" s="20"/>
-      <c r="AO69" s="20"/>
-      <c r="AP69" s="20"/>
-      <c r="AQ69" s="20"/>
-      <c r="AR69" s="20"/>
-      <c r="AS69" s="20"/>
-      <c r="AT69" s="20"/>
-      <c r="AU69" s="20"/>
-      <c r="AV69" s="20"/>
-      <c r="AW69" s="20"/>
-      <c r="AX69" s="20"/>
-      <c r="AY69" s="20"/>
-      <c r="AZ69" s="20"/>
-      <c r="BA69" s="20"/>
-      <c r="BB69" s="20"/>
-      <c r="BC69" s="20"/>
-      <c r="BD69" s="20"/>
-      <c r="BE69" s="20"/>
-      <c r="BF69" s="20"/>
-      <c r="BG69" s="20"/>
-      <c r="BH69" s="20"/>
-      <c r="BI69" s="20"/>
-      <c r="BJ69" s="20"/>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="5"/>
+      <c r="AP69" s="5"/>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="5"/>
+      <c r="AS69" s="5"/>
+      <c r="AT69" s="5"/>
+      <c r="AU69" s="5"/>
+      <c r="AV69" s="5"/>
+      <c r="AW69" s="5"/>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="5"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="5"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
+      <c r="BD69" s="5"/>
+      <c r="BE69" s="5"/>
+      <c r="BF69" s="5"/>
+      <c r="BG69" s="5"/>
+      <c r="BH69" s="5"/>
+      <c r="BI69" s="5"/>
+      <c r="BJ69" s="5"/>
       <c r="BK69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BL69" s="20"/>
+      <c r="BL69" s="5"/>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BK70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
       <c r="H71" s="1" t="s">
         <v>0</v>
       </c>
@@ -10088,14 +11080,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="E72" s="13" t="s">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="E72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="8"/>
       <c r="G72" s="1" t="s">
         <v>5</v>
       </c>
@@ -10240,17 +11232,17 @@
       <c r="BI72">
         <v>0.917006981</v>
       </c>
-      <c r="BK72" s="22">
+      <c r="BK72" s="6">
         <f t="shared" ref="BK72:BK135" si="1">MAX(L72,S72,Z72,AG72,AN72,AU72,BB72,BI72)</f>
         <v>0.931044133</v>
       </c>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="1" t="s">
         <v>6</v>
       </c>
@@ -10400,12 +11392,12 @@
         <v>0.93106246100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="1" t="s">
         <v>7</v>
       </c>
@@ -10555,12 +11547,12 @@
         <v>0.93103448300000002</v>
       </c>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
+    <row r="75" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="1" t="s">
         <v>8</v>
       </c>
@@ -10710,11 +11702,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E76" s="13" t="s">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="14"/>
+      <c r="F76" s="8"/>
       <c r="H76" s="1">
         <v>0</v>
       </c>
@@ -10840,9 +11832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
+    <row r="77" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="2" t="s">
         <v>5</v>
       </c>
@@ -10912,7 +11904,7 @@
       <c r="AF77">
         <v>0.92858075699999998</v>
       </c>
-      <c r="AG77" s="19">
+      <c r="AG77" s="4">
         <v>0.92888926199999999</v>
       </c>
       <c r="AI77" s="1" t="s">
@@ -10987,14 +11979,14 @@
       <c r="BI77">
         <v>0.90410164999999998</v>
       </c>
-      <c r="BK77" s="22">
+      <c r="BK77" s="6">
         <f t="shared" si="1"/>
         <v>0.933199004</v>
       </c>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
+    <row r="78" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="2" t="s">
         <v>6</v>
       </c>
@@ -11144,9 +12136,9 @@
         <v>0.93321704999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="2" t="s">
         <v>7</v>
       </c>
@@ -11296,9 +12288,9 @@
         <v>0.93318965499999995</v>
       </c>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
+    <row r="80" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="2" t="s">
         <v>8</v>
       </c>
@@ -11448,11 +12440,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="81" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E81" s="13" t="s">
+    <row r="81" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="14"/>
+      <c r="F81" s="8"/>
       <c r="H81" s="1">
         <v>0</v>
       </c>
@@ -11578,9 +12570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
+    <row r="82" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="2" t="s">
         <v>5</v>
       </c>
@@ -11725,14 +12717,14 @@
       <c r="BI82">
         <v>0.90405732500000002</v>
       </c>
-      <c r="BK82" s="22">
+      <c r="BK82" s="6">
         <f t="shared" si="1"/>
         <v>0.94499154100000005</v>
       </c>
     </row>
-    <row r="83" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
+    <row r="83" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
@@ -11882,9 +12874,9 @@
         <v>0.94520752799999996</v>
       </c>
     </row>
-    <row r="84" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
+    <row r="84" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="2" t="s">
         <v>7</v>
       </c>
@@ -12034,9 +13026,9 @@
         <v>0.94504310300000005</v>
       </c>
     </row>
-    <row r="85" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
+    <row r="85" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="2" t="s">
         <v>8</v>
       </c>
@@ -12186,11 +13178,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="86" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E86" s="13" t="s">
+    <row r="86" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="14"/>
+      <c r="F86" s="8"/>
       <c r="H86" s="1">
         <v>0</v>
       </c>
@@ -12316,9 +13308,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E87" s="15"/>
-      <c r="F87" s="16"/>
+    <row r="87" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="2" t="s">
         <v>5</v>
       </c>
@@ -12406,7 +13398,7 @@
       <c r="AM87">
         <v>0.93072526700000002</v>
       </c>
-      <c r="AN87" s="19">
+      <c r="AN87" s="4">
         <v>0.93103448300000002</v>
       </c>
       <c r="AP87" s="1" t="s">
@@ -12463,14 +13455,14 @@
       <c r="BI87">
         <v>0.91917509500000005</v>
       </c>
-      <c r="BK87" s="22">
+      <c r="BK87" s="6">
         <f t="shared" si="1"/>
         <v>0.932134621</v>
       </c>
     </row>
-    <row r="88" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E88" s="15"/>
-      <c r="F88" s="16"/>
+    <row r="88" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="2" t="s">
         <v>6</v>
       </c>
@@ -12620,9 +13612,9 @@
         <v>0.93221143299999998</v>
       </c>
     </row>
-    <row r="89" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E89" s="15"/>
-      <c r="F89" s="16"/>
+    <row r="89" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="2" t="s">
         <v>7</v>
       </c>
@@ -12772,9 +13764,9 @@
         <v>0.93211206899999999</v>
       </c>
     </row>
-    <row r="90" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E90" s="17"/>
-      <c r="F90" s="18"/>
+    <row r="90" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E90" s="11"/>
+      <c r="F90" s="12"/>
       <c r="G90" s="2" t="s">
         <v>8</v>
       </c>
@@ -12924,11 +13916,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="91" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E91" s="13" t="s">
+    <row r="91" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E91" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="14"/>
+      <c r="F91" s="8"/>
       <c r="H91" s="1">
         <v>0</v>
       </c>
@@ -13054,9 +14046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E92" s="15"/>
-      <c r="F92" s="16"/>
+    <row r="92" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="2" t="s">
         <v>5</v>
       </c>
@@ -13201,14 +14193,14 @@
       <c r="BI92">
         <v>0.92349682200000005</v>
       </c>
-      <c r="BK92" s="22">
+      <c r="BK92" s="6">
         <f t="shared" si="1"/>
         <v>0.93642693700000001</v>
       </c>
     </row>
-    <row r="93" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E93" s="15"/>
-      <c r="F93" s="16"/>
+    <row r="93" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="2" t="s">
         <v>6</v>
       </c>
@@ -13358,9 +14350,9 @@
         <v>0.93643364200000001</v>
       </c>
     </row>
-    <row r="94" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E94" s="15"/>
-      <c r="F94" s="16"/>
+    <row r="94" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="2" t="s">
         <v>7</v>
       </c>
@@ -13510,9 +14502,9 @@
         <v>0.93642241400000004</v>
       </c>
     </row>
-    <row r="95" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E95" s="17"/>
-      <c r="F95" s="18"/>
+    <row r="95" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E95" s="11"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="2" t="s">
         <v>8</v>
       </c>
@@ -13662,11 +14654,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="96" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E96" s="13" t="s">
+    <row r="96" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="14"/>
+      <c r="F96" s="8"/>
       <c r="H96">
         <v>0</v>
       </c>
@@ -13792,9 +14784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E97" s="15"/>
-      <c r="F97" s="16"/>
+    <row r="97" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97" t="s">
         <v>5</v>
       </c>
@@ -13939,14 +14931,14 @@
       <c r="BI97">
         <v>0.91482267900000003</v>
       </c>
-      <c r="BK97" s="22">
+      <c r="BK97" s="6">
         <f t="shared" si="1"/>
         <v>0.95257159800000002</v>
       </c>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E98" s="15"/>
-      <c r="F98" s="16"/>
+    <row r="98" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
       <c r="G98" t="s">
         <v>6</v>
       </c>
@@ -14096,9 +15088,9 @@
         <v>0.95259256999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E99" s="15"/>
-      <c r="F99" s="16"/>
+    <row r="99" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
       <c r="G99" t="s">
         <v>7</v>
       </c>
@@ -14248,9 +15240,9 @@
         <v>0.95258620699999996</v>
       </c>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E100" s="17"/>
-      <c r="F100" s="18"/>
+    <row r="100" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E100" s="11"/>
+      <c r="F100" s="12"/>
       <c r="G100" t="s">
         <v>8</v>
       </c>
@@ -14400,92 +15392,92 @@
         <v>928</v>
       </c>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:63" x14ac:dyDescent="0.2">
       <c r="BK101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="20"/>
-      <c r="W102" s="20"/>
-      <c r="X102" s="20"/>
-      <c r="Y102" s="20"/>
-      <c r="Z102" s="20"/>
-      <c r="AA102" s="20"/>
-      <c r="AB102" s="20"/>
-      <c r="AC102" s="20"/>
-      <c r="AD102" s="20"/>
-      <c r="AE102" s="20"/>
-      <c r="AF102" s="20"/>
-      <c r="AG102" s="20"/>
-      <c r="AH102" s="20"/>
-      <c r="AI102" s="20"/>
-      <c r="AJ102" s="20"/>
-      <c r="AK102" s="20"/>
-      <c r="AL102" s="20"/>
-      <c r="AM102" s="20"/>
-      <c r="AN102" s="20"/>
-      <c r="AO102" s="20"/>
-      <c r="AP102" s="20"/>
-      <c r="AQ102" s="20"/>
-      <c r="AR102" s="20"/>
-      <c r="AS102" s="20"/>
-      <c r="AT102" s="20"/>
-      <c r="AU102" s="20"/>
-      <c r="AV102" s="20"/>
-      <c r="AW102" s="20"/>
-      <c r="AX102" s="20"/>
-      <c r="AY102" s="20"/>
-      <c r="AZ102" s="20"/>
-      <c r="BA102" s="20"/>
-      <c r="BB102" s="20"/>
-      <c r="BC102" s="20"/>
-      <c r="BD102" s="20"/>
-      <c r="BE102" s="20"/>
-      <c r="BF102" s="20"/>
-      <c r="BG102" s="20"/>
-      <c r="BH102" s="20"/>
-      <c r="BI102" s="20"/>
-      <c r="BJ102" s="20"/>
+    <row r="102" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+      <c r="AM102" s="5"/>
+      <c r="AN102" s="5"/>
+      <c r="AO102" s="5"/>
+      <c r="AP102" s="5"/>
+      <c r="AQ102" s="5"/>
+      <c r="AR102" s="5"/>
+      <c r="AS102" s="5"/>
+      <c r="AT102" s="5"/>
+      <c r="AU102" s="5"/>
+      <c r="AV102" s="5"/>
+      <c r="AW102" s="5"/>
+      <c r="AX102" s="5"/>
+      <c r="AY102" s="5"/>
+      <c r="AZ102" s="5"/>
+      <c r="BA102" s="5"/>
+      <c r="BB102" s="5"/>
+      <c r="BC102" s="5"/>
+      <c r="BD102" s="5"/>
+      <c r="BE102" s="5"/>
+      <c r="BF102" s="5"/>
+      <c r="BG102" s="5"/>
+      <c r="BH102" s="5"/>
+      <c r="BI102" s="5"/>
+      <c r="BJ102" s="5"/>
       <c r="BK102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:63" x14ac:dyDescent="0.2">
       <c r="BK103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A104" s="21" t="s">
+    <row r="104" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
       <c r="H104" s="1" t="s">
         <v>0</v>
       </c>
@@ -14611,14 +15603,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="E105" s="13" t="s">
+    <row r="105" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="E105" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="14"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="1" t="s">
         <v>5</v>
       </c>
@@ -14706,7 +15698,7 @@
       <c r="AM105">
         <v>0.924366617</v>
       </c>
-      <c r="AN105" s="19">
+      <c r="AN105" s="4">
         <v>0.92462798400000001</v>
       </c>
       <c r="AP105" s="1" t="s">
@@ -14763,17 +15755,17 @@
       <c r="BI105" s="3">
         <v>0.92889854500000002</v>
       </c>
-      <c r="BK105" s="22">
+      <c r="BK105" s="6">
         <f t="shared" si="1"/>
         <v>0.92889854500000002</v>
       </c>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="16"/>
+    <row r="106" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
       <c r="G106" s="1" t="s">
         <v>6</v>
       </c>
@@ -14923,12 +15915,12 @@
         <v>0.92895239299999999</v>
       </c>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="16"/>
+    <row r="107" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
       <c r="G107" s="1" t="s">
         <v>7</v>
       </c>
@@ -15078,12 +16070,12 @@
         <v>0.92887931000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="18"/>
+    <row r="108" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="1" t="s">
         <v>8</v>
       </c>
@@ -15233,11 +16225,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E109" s="13" t="s">
+    <row r="109" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="14"/>
+      <c r="F109" s="8"/>
       <c r="H109" s="1">
         <v>0</v>
       </c>
@@ -15363,9 +16355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E110" s="15"/>
-      <c r="F110" s="16"/>
+    <row r="110" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
       <c r="G110" s="2" t="s">
         <v>5</v>
       </c>
@@ -15510,14 +16502,14 @@
       <c r="BI110">
         <v>0.92350716799999999</v>
       </c>
-      <c r="BK110" s="22">
+      <c r="BK110" s="6">
         <f t="shared" si="1"/>
         <v>0.93106148899999996</v>
       </c>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E111" s="15"/>
-      <c r="F111" s="16"/>
+    <row r="111" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
       <c r="G111" s="2" t="s">
         <v>6</v>
       </c>
@@ -15667,9 +16659,9 @@
         <v>0.93116652099999997</v>
       </c>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="E112" s="15"/>
-      <c r="F112" s="16"/>
+    <row r="112" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
       <c r="G112" s="2" t="s">
         <v>7</v>
       </c>
@@ -15819,9 +16811,9 @@
         <v>0.93103448300000002</v>
       </c>
     </row>
-    <row r="113" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E113" s="17"/>
-      <c r="F113" s="18"/>
+    <row r="113" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E113" s="11"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="2" t="s">
         <v>8</v>
       </c>
@@ -15971,11 +16963,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="114" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E114" s="13" t="s">
+    <row r="114" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E114" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="14"/>
+      <c r="F114" s="8"/>
       <c r="H114" s="1">
         <v>0</v>
       </c>
@@ -16101,9 +17093,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E115" s="15"/>
-      <c r="F115" s="16"/>
+    <row r="115" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
       <c r="G115" s="2" t="s">
         <v>5</v>
       </c>
@@ -16191,7 +17183,7 @@
       <c r="AM115">
         <v>0.91994590899999995</v>
       </c>
-      <c r="AN115" s="19">
+      <c r="AN115" s="4">
         <v>0.92028018700000003</v>
       </c>
       <c r="AP115" s="1" t="s">
@@ -16248,14 +17240,14 @@
       <c r="BI115">
         <v>0.931044133</v>
       </c>
-      <c r="BK115" s="22">
+      <c r="BK115" s="6">
         <f t="shared" si="1"/>
         <v>0.933215817</v>
       </c>
     </row>
-    <row r="116" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E116" s="15"/>
-      <c r="F116" s="16"/>
+    <row r="116" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
       <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
@@ -16405,9 +17397,9 @@
         <v>0.93332018800000005</v>
       </c>
     </row>
-    <row r="117" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E117" s="15"/>
-      <c r="F117" s="16"/>
+    <row r="117" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
       <c r="G117" s="2" t="s">
         <v>7</v>
       </c>
@@ -16557,9 +17549,9 @@
         <v>0.93318965499999995</v>
       </c>
     </row>
-    <row r="118" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E118" s="17"/>
-      <c r="F118" s="18"/>
+    <row r="118" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E118" s="11"/>
+      <c r="F118" s="12"/>
       <c r="G118" s="2" t="s">
         <v>8</v>
       </c>
@@ -16709,11 +17701,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="119" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E119" s="13" t="s">
+    <row r="119" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E119" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="14"/>
+      <c r="F119" s="8"/>
       <c r="H119" s="1">
         <v>0</v>
       </c>
@@ -16839,9 +17831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E120" s="15"/>
-      <c r="F120" s="16"/>
+    <row r="120" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
       <c r="G120" s="2" t="s">
         <v>5</v>
       </c>
@@ -16929,7 +17921,7 @@
       <c r="AM120">
         <v>0.93081725800000004</v>
       </c>
-      <c r="AN120" s="19">
+      <c r="AN120" s="4">
         <v>0.93107625699999996</v>
       </c>
       <c r="AP120" s="1" t="s">
@@ -16986,14 +17978,14 @@
       <c r="BI120" s="3">
         <v>0.93643553400000001</v>
       </c>
-      <c r="BK120" s="22">
+      <c r="BK120" s="6">
         <f t="shared" si="1"/>
         <v>0.93643553400000001</v>
       </c>
     </row>
-    <row r="121" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E121" s="15"/>
-      <c r="F121" s="16"/>
+    <row r="121" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
       <c r="G121" s="2" t="s">
         <v>6</v>
       </c>
@@ -17143,9 +18135,9 @@
         <v>0.93646828800000004</v>
       </c>
     </row>
-    <row r="122" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E122" s="15"/>
-      <c r="F122" s="16"/>
+    <row r="122" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
       <c r="G122" s="2" t="s">
         <v>7</v>
       </c>
@@ -17295,9 +18287,9 @@
         <v>0.93642241400000004</v>
       </c>
     </row>
-    <row r="123" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E123" s="17"/>
-      <c r="F123" s="18"/>
+    <row r="123" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
       <c r="G123" s="2" t="s">
         <v>8</v>
       </c>
@@ -17447,11 +18439,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="124" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E124" s="13" t="s">
+    <row r="124" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E124" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F124" s="14"/>
+      <c r="F124" s="8"/>
       <c r="H124" s="1">
         <v>0</v>
       </c>
@@ -17577,9 +18569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E125" s="15"/>
-      <c r="F125" s="16"/>
+    <row r="125" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E125" s="9"/>
+      <c r="F125" s="10"/>
       <c r="G125" s="2" t="s">
         <v>5</v>
       </c>
@@ -17667,7 +18659,7 @@
       <c r="AM125">
         <v>0.92220566299999995</v>
       </c>
-      <c r="AN125" s="19">
+      <c r="AN125" s="4">
         <v>0.92247449800000003</v>
       </c>
       <c r="AP125" s="1" t="s">
@@ -17724,14 +18716,14 @@
       <c r="BI125">
         <v>0.932134621</v>
       </c>
-      <c r="BK125" s="22">
+      <c r="BK125" s="6">
         <f t="shared" si="1"/>
         <v>0.93430376900000001</v>
       </c>
     </row>
-    <row r="126" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E126" s="15"/>
-      <c r="F126" s="16"/>
+    <row r="126" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
       <c r="G126" s="2" t="s">
         <v>6</v>
       </c>
@@ -17881,9 +18873,9 @@
         <v>0.93451636699999996</v>
       </c>
     </row>
-    <row r="127" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E127" s="15"/>
-      <c r="F127" s="16"/>
+    <row r="127" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
       <c r="G127" s="2" t="s">
         <v>7</v>
       </c>
@@ -18033,9 +19025,9 @@
         <v>0.93426724100000003</v>
       </c>
     </row>
-    <row r="128" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E128" s="17"/>
-      <c r="F128" s="18"/>
+    <row r="128" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E128" s="11"/>
+      <c r="F128" s="12"/>
       <c r="G128" s="2" t="s">
         <v>8</v>
       </c>
@@ -18185,11 +19177,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="129" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E129" s="13" t="s">
+    <row r="129" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E129" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F129" s="14"/>
+      <c r="F129" s="8"/>
       <c r="H129">
         <v>0</v>
       </c>
@@ -18315,9 +19307,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E130" s="15"/>
-      <c r="F130" s="16"/>
+    <row r="130" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
       <c r="G130" t="s">
         <v>5</v>
       </c>
@@ -18405,7 +19397,7 @@
       <c r="AM130">
         <v>0.92865529800000002</v>
       </c>
-      <c r="AN130" s="19">
+      <c r="AN130" s="4">
         <v>0.92892238999999999</v>
       </c>
       <c r="AP130" s="1" t="s">
@@ -18462,14 +19454,14 @@
       <c r="BI130" s="3">
         <v>0.93536231400000003</v>
       </c>
-      <c r="BK130" s="22">
+      <c r="BK130" s="6">
         <f t="shared" si="1"/>
         <v>0.93536231400000003</v>
       </c>
     </row>
-    <row r="131" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E131" s="15"/>
-      <c r="F131" s="16"/>
+    <row r="131" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E131" s="9"/>
+      <c r="F131" s="10"/>
       <c r="G131" t="s">
         <v>6</v>
       </c>
@@ -18619,9 +19611,9 @@
         <v>0.93541465499999998</v>
       </c>
     </row>
-    <row r="132" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E132" s="15"/>
-      <c r="F132" s="16"/>
+    <row r="132" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
       <c r="G132" t="s">
         <v>7</v>
       </c>
@@ -18771,9 +19763,9 @@
         <v>0.93534482799999996</v>
       </c>
     </row>
-    <row r="133" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E133" s="17"/>
-      <c r="F133" s="18"/>
+    <row r="133" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E133" s="11"/>
+      <c r="F133" s="12"/>
       <c r="G133" t="s">
         <v>8</v>
       </c>
@@ -18923,93 +19915,93 @@
         <v>928</v>
       </c>
     </row>
-    <row r="134" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BK134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="20"/>
-      <c r="N135" s="20"/>
-      <c r="O135" s="20"/>
-      <c r="P135" s="20"/>
-      <c r="Q135" s="20"/>
-      <c r="R135" s="20"/>
-      <c r="S135" s="20"/>
-      <c r="T135" s="20"/>
-      <c r="U135" s="20"/>
-      <c r="V135" s="20"/>
-      <c r="W135" s="20"/>
-      <c r="X135" s="20"/>
-      <c r="Y135" s="20"/>
-      <c r="Z135" s="20"/>
-      <c r="AA135" s="20"/>
-      <c r="AB135" s="20"/>
-      <c r="AC135" s="20"/>
-      <c r="AD135" s="20"/>
-      <c r="AE135" s="20"/>
-      <c r="AF135" s="20"/>
-      <c r="AG135" s="20"/>
-      <c r="AH135" s="20"/>
-      <c r="AI135" s="20"/>
-      <c r="AJ135" s="20"/>
-      <c r="AK135" s="20"/>
-      <c r="AL135" s="20"/>
-      <c r="AM135" s="20"/>
-      <c r="AN135" s="20"/>
-      <c r="AO135" s="20"/>
-      <c r="AP135" s="20"/>
-      <c r="AQ135" s="20"/>
-      <c r="AR135" s="20"/>
-      <c r="AS135" s="20"/>
-      <c r="AT135" s="20"/>
-      <c r="AU135" s="20"/>
-      <c r="AV135" s="20"/>
-      <c r="AW135" s="20"/>
-      <c r="AX135" s="20"/>
-      <c r="AY135" s="20"/>
-      <c r="AZ135" s="20"/>
-      <c r="BA135" s="20"/>
-      <c r="BB135" s="20"/>
-      <c r="BC135" s="20"/>
-      <c r="BD135" s="20"/>
-      <c r="BE135" s="20"/>
-      <c r="BF135" s="20"/>
-      <c r="BG135" s="20"/>
-      <c r="BH135" s="20"/>
-      <c r="BI135" s="20"/>
-      <c r="BJ135" s="20"/>
+    <row r="135" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="5"/>
+      <c r="AG135" s="5"/>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+      <c r="AJ135" s="5"/>
+      <c r="AK135" s="5"/>
+      <c r="AL135" s="5"/>
+      <c r="AM135" s="5"/>
+      <c r="AN135" s="5"/>
+      <c r="AO135" s="5"/>
+      <c r="AP135" s="5"/>
+      <c r="AQ135" s="5"/>
+      <c r="AR135" s="5"/>
+      <c r="AS135" s="5"/>
+      <c r="AT135" s="5"/>
+      <c r="AU135" s="5"/>
+      <c r="AV135" s="5"/>
+      <c r="AW135" s="5"/>
+      <c r="AX135" s="5"/>
+      <c r="AY135" s="5"/>
+      <c r="AZ135" s="5"/>
+      <c r="BA135" s="5"/>
+      <c r="BB135" s="5"/>
+      <c r="BC135" s="5"/>
+      <c r="BD135" s="5"/>
+      <c r="BE135" s="5"/>
+      <c r="BF135" s="5"/>
+      <c r="BG135" s="5"/>
+      <c r="BH135" s="5"/>
+      <c r="BI135" s="5"/>
+      <c r="BJ135" s="5"/>
       <c r="BK135">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BL135" s="20"/>
+      <c r="BL135" s="5"/>
     </row>
-    <row r="136" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BK136">
         <f t="shared" ref="BK136:BK199" si="2">MAX(L136,S136,Z136,AG136,AN136,AU136,BB136,BI136)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
+    <row r="137" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A137" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
       <c r="H137" s="1">
         <v>0</v>
       </c>
@@ -19135,14 +20127,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A138" s="21"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="E138" s="13" t="s">
+    <row r="138" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="E138" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="14"/>
+      <c r="F138" s="8"/>
       <c r="G138" s="1" t="s">
         <v>5</v>
       </c>
@@ -19212,7 +20204,7 @@
       <c r="AF138">
         <v>0.93190640899999999</v>
       </c>
-      <c r="AG138" s="19">
+      <c r="AG138" s="4">
         <v>0.93215642700000001</v>
       </c>
       <c r="AI138" s="1" t="s">
@@ -19230,7 +20222,7 @@
       <c r="AM138">
         <v>0.92009494800000002</v>
       </c>
-      <c r="AN138" s="19">
+      <c r="AN138" s="4">
         <v>0.92033655999999997</v>
       </c>
       <c r="AP138" s="1" t="s">
@@ -19287,17 +20279,17 @@
       <c r="BI138" s="3">
         <v>0.938605142</v>
       </c>
-      <c r="BK138" s="22">
+      <c r="BK138" s="6">
         <f t="shared" si="2"/>
         <v>0.938605142</v>
       </c>
     </row>
-    <row r="139" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A139" s="21"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="16"/>
+    <row r="139" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="10"/>
       <c r="G139" s="1" t="s">
         <v>6</v>
       </c>
@@ -19447,12 +20439,12 @@
         <v>0.93873974599999999</v>
       </c>
     </row>
-    <row r="140" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A140" s="21"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="16"/>
+    <row r="140" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
       <c r="G140" s="1" t="s">
         <v>7</v>
       </c>
@@ -19602,12 +20594,12 @@
         <v>0.93857758599999996</v>
       </c>
     </row>
-    <row r="141" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="18"/>
+    <row r="141" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A141" s="13"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="12"/>
       <c r="G141" s="1" t="s">
         <v>8</v>
       </c>
@@ -19757,14 +20749,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="142" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="E142" s="13" t="s">
+    <row r="142" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="E142" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="14"/>
+      <c r="F142" s="8"/>
       <c r="H142" s="1">
         <v>0</v>
       </c>
@@ -19890,9 +20882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E143" s="15"/>
-      <c r="F143" s="16"/>
+    <row r="143" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E143" s="9"/>
+      <c r="F143" s="10"/>
       <c r="G143" s="2" t="s">
         <v>5</v>
       </c>
@@ -19980,7 +20972,7 @@
       <c r="AM143">
         <v>0.92861937800000005</v>
       </c>
-      <c r="AN143" s="19">
+      <c r="AN143" s="4">
         <v>0.92890715999999995</v>
       </c>
       <c r="AP143" t="s">
@@ -20037,14 +21029,14 @@
       <c r="BI143">
         <v>0.93427191799999998</v>
       </c>
-      <c r="BK143" s="22">
+      <c r="BK143" s="6">
         <f t="shared" si="2"/>
         <v>0.938605142</v>
       </c>
     </row>
-    <row r="144" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E144" s="15"/>
-      <c r="F144" s="16"/>
+    <row r="144" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E144" s="9"/>
+      <c r="F144" s="10"/>
       <c r="G144" s="2" t="s">
         <v>6</v>
       </c>
@@ -20194,9 +21186,9 @@
         <v>0.93873974599999999</v>
       </c>
     </row>
-    <row r="145" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E145" s="15"/>
-      <c r="F145" s="16"/>
+    <row r="145" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E145" s="9"/>
+      <c r="F145" s="10"/>
       <c r="G145" s="2" t="s">
         <v>7</v>
       </c>
@@ -20346,9 +21338,9 @@
         <v>0.93857758599999996</v>
       </c>
     </row>
-    <row r="146" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E146" s="17"/>
-      <c r="F146" s="18"/>
+    <row r="146" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E146" s="11"/>
+      <c r="F146" s="12"/>
       <c r="G146" s="2" t="s">
         <v>8</v>
       </c>
@@ -20498,11 +21490,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="147" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E147" s="13" t="s">
+    <row r="147" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E147" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="14"/>
+      <c r="F147" s="8"/>
       <c r="H147" s="1">
         <v>0</v>
       </c>
@@ -20628,9 +21620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E148" s="15"/>
-      <c r="F148" s="16"/>
+    <row r="148" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E148" s="9"/>
+      <c r="F148" s="10"/>
       <c r="G148" s="1" t="s">
         <v>5</v>
       </c>
@@ -20718,7 +21710,7 @@
       <c r="AM148">
         <v>0.93086461099999995</v>
       </c>
-      <c r="AN148" s="19">
+      <c r="AN148" s="4">
         <v>0.93109356799999998</v>
       </c>
       <c r="AP148" s="1" t="s">
@@ -20775,14 +21767,14 @@
       <c r="BI148" s="3">
         <v>0.94291966800000004</v>
       </c>
-      <c r="BK148" s="22">
+      <c r="BK148" s="6">
         <f t="shared" si="2"/>
         <v>0.94291966800000004</v>
       </c>
     </row>
-    <row r="149" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E149" s="15"/>
-      <c r="F149" s="16"/>
+    <row r="149" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E149" s="9"/>
+      <c r="F149" s="10"/>
       <c r="G149" s="1" t="s">
         <v>6</v>
       </c>
@@ -20932,9 +21924,9 @@
         <v>0.94312910999999999</v>
       </c>
     </row>
-    <row r="150" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E150" s="15"/>
-      <c r="F150" s="16"/>
+    <row r="150" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E150" s="9"/>
+      <c r="F150" s="10"/>
       <c r="G150" s="1" t="s">
         <v>7</v>
       </c>
@@ -21084,9 +22076,9 @@
         <v>0.94288793100000001</v>
       </c>
     </row>
-    <row r="151" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E151" s="17"/>
-      <c r="F151" s="18"/>
+    <row r="151" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E151" s="11"/>
+      <c r="F151" s="12"/>
       <c r="G151" s="1" t="s">
         <v>8</v>
       </c>
@@ -21236,11 +22228,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="152" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E152" s="13" t="s">
+    <row r="152" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E152" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F152" s="14"/>
+      <c r="F152" s="8"/>
       <c r="H152" s="1">
         <v>0</v>
       </c>
@@ -21366,9 +22358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E153" s="15"/>
-      <c r="F153" s="16"/>
+    <row r="153" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E153" s="9"/>
+      <c r="F153" s="10"/>
       <c r="G153" s="1" t="s">
         <v>5</v>
       </c>
@@ -21456,7 +22448,7 @@
       <c r="AM153">
         <v>0.933010432</v>
       </c>
-      <c r="AN153" s="19">
+      <c r="AN153" s="4">
         <v>0.93324192900000003</v>
       </c>
       <c r="AP153" s="1" t="s">
@@ -21513,14 +22505,14 @@
       <c r="BI153">
         <v>0.93862314599999996</v>
       </c>
-      <c r="BK153" s="22">
+      <c r="BK153" s="6">
         <f t="shared" si="2"/>
         <v>0.94293878399999997</v>
       </c>
     </row>
-    <row r="154" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E154" s="15"/>
-      <c r="F154" s="16"/>
+    <row r="154" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E154" s="9"/>
+      <c r="F154" s="10"/>
       <c r="G154" s="1" t="s">
         <v>6</v>
       </c>
@@ -21670,9 +22662,9 @@
         <v>0.94362290400000004</v>
       </c>
     </row>
-    <row r="155" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E155" s="15"/>
-      <c r="F155" s="16"/>
+    <row r="155" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E155" s="9"/>
+      <c r="F155" s="10"/>
       <c r="G155" s="1" t="s">
         <v>7</v>
       </c>
@@ -21822,9 +22814,9 @@
         <v>0.94288793100000001</v>
       </c>
     </row>
-    <row r="156" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E156" s="17"/>
-      <c r="F156" s="18"/>
+    <row r="156" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E156" s="11"/>
+      <c r="F156" s="12"/>
       <c r="G156" s="1" t="s">
         <v>8</v>
       </c>
@@ -21974,11 +22966,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="157" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E157" s="13" t="s">
+    <row r="157" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E157" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="14"/>
+      <c r="F157" s="8"/>
       <c r="H157" s="1">
         <v>0</v>
       </c>
@@ -22104,9 +23096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E158" s="15"/>
-      <c r="F158" s="16"/>
+    <row r="158" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E158" s="9"/>
+      <c r="F158" s="10"/>
       <c r="G158" s="1" t="s">
         <v>5</v>
       </c>
@@ -22194,7 +23186,7 @@
       <c r="AM158">
         <v>0.92870413100000004</v>
       </c>
-      <c r="AN158" s="19">
+      <c r="AN158" s="4">
         <v>0.92894024200000003</v>
       </c>
       <c r="AP158" s="1" t="s">
@@ -22251,14 +23243,14 @@
       <c r="BI158">
         <v>0.94399945900000004</v>
       </c>
-      <c r="BK158" s="22">
+      <c r="BK158" s="6">
         <f t="shared" si="2"/>
         <v>0.94831633199999998</v>
       </c>
     </row>
-    <row r="159" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E159" s="15"/>
-      <c r="F159" s="16"/>
+    <row r="159" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E159" s="9"/>
+      <c r="F159" s="10"/>
       <c r="G159" s="1" t="s">
         <v>6</v>
       </c>
@@ -22408,9 +23400,9 @@
         <v>0.94878891700000001</v>
       </c>
     </row>
-    <row r="160" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E160" s="15"/>
-      <c r="F160" s="16"/>
+    <row r="160" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E160" s="9"/>
+      <c r="F160" s="10"/>
       <c r="G160" s="1" t="s">
         <v>7</v>
       </c>
@@ -22560,9 +23552,9 @@
         <v>0.94827586200000002</v>
       </c>
     </row>
-    <row r="161" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E161" s="17"/>
-      <c r="F161" s="18"/>
+    <row r="161" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E161" s="11"/>
+      <c r="F161" s="12"/>
       <c r="G161" s="1" t="s">
         <v>8</v>
       </c>
@@ -22712,11 +23704,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="162" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E162" s="13" t="s">
+    <row r="162" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F162" s="14"/>
+      <c r="F162" s="8"/>
       <c r="H162" s="1">
         <v>0</v>
       </c>
@@ -22842,9 +23834,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E163" s="15"/>
-      <c r="F163" s="16"/>
+    <row r="163" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E163" s="9"/>
+      <c r="F163" s="10"/>
       <c r="G163" s="1" t="s">
         <v>5</v>
       </c>
@@ -22989,14 +23981,14 @@
       <c r="BI163">
         <v>0.94179241599999997</v>
       </c>
-      <c r="BK163" s="22">
+      <c r="BK163" s="6">
         <f t="shared" si="2"/>
         <v>0.94614178800000004</v>
       </c>
     </row>
-    <row r="164" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E164" s="15"/>
-      <c r="F164" s="16"/>
+    <row r="164" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E164" s="9"/>
+      <c r="F164" s="10"/>
       <c r="G164" s="1" t="s">
         <v>6</v>
       </c>
@@ -23146,9 +24138,9 @@
         <v>0.94624218699999996</v>
       </c>
     </row>
-    <row r="165" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E165" s="15"/>
-      <c r="F165" s="16"/>
+    <row r="165" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E165" s="9"/>
+      <c r="F165" s="10"/>
       <c r="G165" s="1" t="s">
         <v>7</v>
       </c>
@@ -23298,9 +24290,9 @@
         <v>0.94612068999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E166" s="17"/>
-      <c r="F166" s="18"/>
+    <row r="166" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E166" s="11"/>
+      <c r="F166" s="12"/>
       <c r="G166" s="1" t="s">
         <v>8</v>
       </c>
@@ -23450,93 +24442,93 @@
         <v>928</v>
       </c>
     </row>
-    <row r="167" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BK167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
-      <c r="M168" s="20"/>
-      <c r="N168" s="20"/>
-      <c r="O168" s="20"/>
-      <c r="P168" s="20"/>
-      <c r="Q168" s="20"/>
-      <c r="R168" s="20"/>
-      <c r="S168" s="20"/>
-      <c r="T168" s="20"/>
-      <c r="U168" s="20"/>
-      <c r="V168" s="20"/>
-      <c r="W168" s="20"/>
-      <c r="X168" s="20"/>
-      <c r="Y168" s="20"/>
-      <c r="Z168" s="20"/>
-      <c r="AA168" s="20"/>
-      <c r="AB168" s="20"/>
-      <c r="AC168" s="20"/>
-      <c r="AD168" s="20"/>
-      <c r="AE168" s="20"/>
-      <c r="AF168" s="20"/>
-      <c r="AG168" s="20"/>
-      <c r="AH168" s="20"/>
-      <c r="AI168" s="20"/>
-      <c r="AJ168" s="20"/>
-      <c r="AK168" s="20"/>
-      <c r="AL168" s="20"/>
-      <c r="AM168" s="20"/>
-      <c r="AN168" s="20"/>
-      <c r="AO168" s="20"/>
-      <c r="AP168" s="20"/>
-      <c r="AQ168" s="20"/>
-      <c r="AR168" s="20"/>
-      <c r="AS168" s="20"/>
-      <c r="AT168" s="20"/>
-      <c r="AU168" s="20"/>
-      <c r="AV168" s="20"/>
-      <c r="AW168" s="20"/>
-      <c r="AX168" s="20"/>
-      <c r="AY168" s="20"/>
-      <c r="AZ168" s="20"/>
-      <c r="BA168" s="20"/>
-      <c r="BB168" s="20"/>
-      <c r="BC168" s="20"/>
-      <c r="BD168" s="20"/>
-      <c r="BE168" s="20"/>
-      <c r="BF168" s="20"/>
-      <c r="BG168" s="20"/>
-      <c r="BH168" s="20"/>
-      <c r="BI168" s="20"/>
-      <c r="BJ168" s="20"/>
+    <row r="168" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5"/>
+      <c r="V168" s="5"/>
+      <c r="W168" s="5"/>
+      <c r="X168" s="5"/>
+      <c r="Y168" s="5"/>
+      <c r="Z168" s="5"/>
+      <c r="AA168" s="5"/>
+      <c r="AB168" s="5"/>
+      <c r="AC168" s="5"/>
+      <c r="AD168" s="5"/>
+      <c r="AE168" s="5"/>
+      <c r="AF168" s="5"/>
+      <c r="AG168" s="5"/>
+      <c r="AH168" s="5"/>
+      <c r="AI168" s="5"/>
+      <c r="AJ168" s="5"/>
+      <c r="AK168" s="5"/>
+      <c r="AL168" s="5"/>
+      <c r="AM168" s="5"/>
+      <c r="AN168" s="5"/>
+      <c r="AO168" s="5"/>
+      <c r="AP168" s="5"/>
+      <c r="AQ168" s="5"/>
+      <c r="AR168" s="5"/>
+      <c r="AS168" s="5"/>
+      <c r="AT168" s="5"/>
+      <c r="AU168" s="5"/>
+      <c r="AV168" s="5"/>
+      <c r="AW168" s="5"/>
+      <c r="AX168" s="5"/>
+      <c r="AY168" s="5"/>
+      <c r="AZ168" s="5"/>
+      <c r="BA168" s="5"/>
+      <c r="BB168" s="5"/>
+      <c r="BC168" s="5"/>
+      <c r="BD168" s="5"/>
+      <c r="BE168" s="5"/>
+      <c r="BF168" s="5"/>
+      <c r="BG168" s="5"/>
+      <c r="BH168" s="5"/>
+      <c r="BI168" s="5"/>
+      <c r="BJ168" s="5"/>
       <c r="BK168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BL168" s="20"/>
+      <c r="BL168" s="5"/>
     </row>
-    <row r="169" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:64" x14ac:dyDescent="0.2">
       <c r="BK169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+    <row r="170" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A170" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
       <c r="H170" s="1">
         <v>0</v>
       </c>
@@ -23662,14 +24654,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A171" s="21"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="E171" s="13" t="s">
+    <row r="171" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="E171" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F171" s="14"/>
+      <c r="F171" s="8"/>
       <c r="G171" s="1" t="s">
         <v>5</v>
       </c>
@@ -23757,7 +24749,7 @@
       <c r="AM171">
         <v>0.92116694899999996</v>
       </c>
-      <c r="AN171" s="19">
+      <c r="AN171" s="4">
         <v>0.92141099500000001</v>
       </c>
       <c r="AP171" s="1" t="s">
@@ -23814,17 +24806,17 @@
       <c r="BI171" s="3">
         <v>0.93968554599999998</v>
       </c>
-      <c r="BK171" s="22">
+      <c r="BK171" s="6">
         <f t="shared" si="2"/>
         <v>0.93968554599999998</v>
       </c>
     </row>
-    <row r="172" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A172" s="21"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="16"/>
+    <row r="172" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="10"/>
       <c r="G172" s="1" t="s">
         <v>6</v>
       </c>
@@ -23974,12 +24966,12 @@
         <v>0.93985587100000001</v>
       </c>
     </row>
-    <row r="173" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A173" s="21"/>
-      <c r="B173" s="21"/>
-      <c r="C173" s="21"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="16"/>
+    <row r="173" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="10"/>
       <c r="G173" s="1" t="s">
         <v>7</v>
       </c>
@@ -24129,12 +25121,12 @@
         <v>0.93965517200000004</v>
       </c>
     </row>
-    <row r="174" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A174" s="21"/>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="18"/>
+    <row r="174" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="12"/>
       <c r="G174" s="1" t="s">
         <v>8</v>
       </c>
@@ -24284,14 +25276,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="175" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A175" s="21"/>
-      <c r="B175" s="21"/>
-      <c r="C175" s="21"/>
-      <c r="E175" s="13" t="s">
+    <row r="175" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A175" s="13"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="13"/>
+      <c r="E175" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F175" s="14"/>
+      <c r="F175" s="8"/>
       <c r="H175" s="1">
         <v>0</v>
       </c>
@@ -24417,9 +25409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="E176" s="15"/>
-      <c r="F176" s="16"/>
+    <row r="176" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E176" s="9"/>
+      <c r="F176" s="10"/>
       <c r="G176" s="2" t="s">
         <v>5</v>
       </c>
@@ -24564,14 +25556,14 @@
       <c r="BI176">
         <v>0.93427191799999998</v>
       </c>
-      <c r="BK176" s="22">
+      <c r="BK176" s="6">
         <f t="shared" si="2"/>
         <v>0.93969172499999998</v>
       </c>
     </row>
-    <row r="177" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E177" s="15"/>
-      <c r="F177" s="16"/>
+    <row r="177" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E177" s="9"/>
+      <c r="F177" s="10"/>
       <c r="G177" s="2" t="s">
         <v>6</v>
       </c>
@@ -24721,9 +25713,9 @@
         <v>0.93994686900000002</v>
       </c>
     </row>
-    <row r="178" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E178" s="15"/>
-      <c r="F178" s="16"/>
+    <row r="178" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E178" s="9"/>
+      <c r="F178" s="10"/>
       <c r="G178" s="2" t="s">
         <v>7</v>
       </c>
@@ -24873,9 +25865,9 @@
         <v>0.93965517200000004</v>
       </c>
     </row>
-    <row r="179" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E179" s="17"/>
-      <c r="F179" s="18"/>
+    <row r="179" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E179" s="11"/>
+      <c r="F179" s="12"/>
       <c r="G179" s="2" t="s">
         <v>8</v>
       </c>
@@ -25025,11 +26017,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="180" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E180" s="13" t="s">
+    <row r="180" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E180" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F180" s="14"/>
+      <c r="F180" s="8"/>
       <c r="H180" s="1">
         <v>0</v>
       </c>
@@ -25155,9 +26147,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E181" s="15"/>
-      <c r="F181" s="16"/>
+    <row r="181" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E181" s="9"/>
+      <c r="F181" s="10"/>
       <c r="G181" s="2" t="s">
         <v>5</v>
       </c>
@@ -25227,7 +26219,7 @@
       <c r="AF181">
         <v>0.94161264300000003</v>
       </c>
-      <c r="AG181" s="19">
+      <c r="AG181" s="4">
         <v>0.94183963400000004</v>
       </c>
       <c r="AI181" s="1" t="s">
@@ -25245,7 +26237,7 @@
       <c r="AM181">
         <v>0.93297921900000003</v>
       </c>
-      <c r="AN181" s="19">
+      <c r="AN181" s="4">
         <v>0.93323012400000005</v>
       </c>
       <c r="AP181" s="1" t="s">
@@ -25302,14 +26294,14 @@
       <c r="BI181" s="3">
         <v>0.94184559199999995</v>
       </c>
-      <c r="BK181" s="22">
+      <c r="BK181" s="6">
         <f t="shared" si="2"/>
         <v>0.94184559199999995</v>
       </c>
     </row>
-    <row r="182" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E182" s="15"/>
-      <c r="F182" s="16"/>
+    <row r="182" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E182" s="9"/>
+      <c r="F182" s="10"/>
       <c r="G182" s="2" t="s">
         <v>6</v>
       </c>
@@ -25459,9 +26451,9 @@
         <v>0.942099935</v>
       </c>
     </row>
-    <row r="183" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E183" s="15"/>
-      <c r="F183" s="16"/>
+    <row r="183" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E183" s="9"/>
+      <c r="F183" s="10"/>
       <c r="G183" s="2" t="s">
         <v>7</v>
       </c>
@@ -25611,9 +26603,9 @@
         <v>0.94181034500000005</v>
       </c>
     </row>
-    <row r="184" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E184" s="17"/>
-      <c r="F184" s="18"/>
+    <row r="184" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E184" s="11"/>
+      <c r="F184" s="12"/>
       <c r="G184" s="2" t="s">
         <v>8</v>
       </c>
@@ -25763,11 +26755,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="185" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E185" s="13" t="s">
+    <row r="185" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E185" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F185" s="14"/>
+      <c r="F185" s="8"/>
       <c r="H185" s="1">
         <v>0</v>
       </c>
@@ -25893,9 +26885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E186" s="15"/>
-      <c r="F186" s="16"/>
+    <row r="186" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E186" s="9"/>
+      <c r="F186" s="10"/>
       <c r="G186" s="2" t="s">
         <v>5</v>
       </c>
@@ -25983,7 +26975,7 @@
       <c r="AM186">
         <v>0.92758300599999999</v>
       </c>
-      <c r="AN186" s="19">
+      <c r="AN186" s="4">
         <v>0.927848899</v>
       </c>
       <c r="AP186" s="1" t="s">
@@ -26037,17 +27029,17 @@
       <c r="BH186">
         <v>0.93731803599999997</v>
       </c>
-      <c r="BI186" s="19">
+      <c r="BI186" s="4">
         <v>0.93754367100000002</v>
       </c>
-      <c r="BK186" s="22">
+      <c r="BK186" s="6">
         <f t="shared" si="2"/>
         <v>0.93971415400000002</v>
       </c>
     </row>
-    <row r="187" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E187" s="15"/>
-      <c r="F187" s="16"/>
+    <row r="187" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E187" s="9"/>
+      <c r="F187" s="10"/>
       <c r="G187" s="2" t="s">
         <v>6</v>
       </c>
@@ -26197,9 +27189,9 @@
         <v>0.94064634599999997</v>
       </c>
     </row>
-    <row r="188" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E188" s="15"/>
-      <c r="F188" s="16"/>
+    <row r="188" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E188" s="9"/>
+      <c r="F188" s="10"/>
       <c r="G188" s="2" t="s">
         <v>7</v>
       </c>
@@ -26349,9 +27341,9 @@
         <v>0.93965517200000004</v>
       </c>
     </row>
-    <row r="189" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E189" s="17"/>
-      <c r="F189" s="18"/>
+    <row r="189" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E189" s="11"/>
+      <c r="F189" s="12"/>
       <c r="G189" s="2" t="s">
         <v>8</v>
       </c>
@@ -26501,11 +27493,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="190" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E190" s="13" t="s">
+    <row r="190" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E190" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F190" s="14"/>
+      <c r="F190" s="8"/>
       <c r="H190" s="1">
         <v>0</v>
       </c>
@@ -26631,9 +27623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E191" s="15"/>
-      <c r="F191" s="16"/>
+    <row r="191" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E191" s="9"/>
+      <c r="F191" s="10"/>
       <c r="G191" s="2" t="s">
         <v>5</v>
       </c>
@@ -26721,7 +27713,7 @@
       <c r="AM191">
         <v>0.93195205999999997</v>
       </c>
-      <c r="AN191" s="19">
+      <c r="AN191" s="4">
         <v>0.93217251700000003</v>
       </c>
       <c r="AP191" s="1" t="s">
@@ -26778,14 +27770,14 @@
       <c r="BI191">
         <v>0.94292524799999999</v>
       </c>
-      <c r="BK191" s="22">
+      <c r="BK191" s="6">
         <f t="shared" si="2"/>
         <v>0.94508386799999999</v>
       </c>
     </row>
-    <row r="192" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E192" s="15"/>
-      <c r="F192" s="16"/>
+    <row r="192" spans="5:63" x14ac:dyDescent="0.2">
+      <c r="E192" s="9"/>
+      <c r="F192" s="10"/>
       <c r="G192" s="2" t="s">
         <v>6</v>
       </c>
@@ -26935,9 +27927,9 @@
         <v>0.94549599900000003</v>
       </c>
     </row>
-    <row r="193" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E193" s="15"/>
-      <c r="F193" s="16"/>
+    <row r="193" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="E193" s="9"/>
+      <c r="F193" s="10"/>
       <c r="G193" s="2" t="s">
         <v>7</v>
       </c>
@@ -27087,9 +28079,9 @@
         <v>0.94504310300000005</v>
       </c>
     </row>
-    <row r="194" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E194" s="17"/>
-      <c r="F194" s="18"/>
+    <row r="194" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="E194" s="11"/>
+      <c r="F194" s="12"/>
       <c r="G194" s="2" t="s">
         <v>8</v>
       </c>
@@ -27239,11 +28231,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="195" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E195" s="13" t="s">
+    <row r="195" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="E195" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F195" s="14"/>
+      <c r="F195" s="8"/>
       <c r="H195">
         <v>0</v>
       </c>
@@ -27369,9 +28361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E196" s="15"/>
-      <c r="F196" s="16"/>
+    <row r="196" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="E196" s="9"/>
+      <c r="F196" s="10"/>
       <c r="G196" t="s">
         <v>5</v>
       </c>
@@ -27459,7 +28451,7 @@
       <c r="AM196">
         <v>0.94059306799999998</v>
       </c>
-      <c r="AN196" s="19">
+      <c r="AN196" s="4">
         <v>0.94078553099999995</v>
       </c>
       <c r="AP196" s="1" t="s">
@@ -27513,17 +28505,17 @@
       <c r="BH196">
         <v>0.94368064500000004</v>
       </c>
-      <c r="BI196" s="19">
+      <c r="BI196" s="4">
         <v>0.94394825199999999</v>
       </c>
-      <c r="BK196" s="22">
+      <c r="BK196" s="6">
         <f t="shared" si="2"/>
         <v>0.94826813700000001</v>
       </c>
     </row>
-    <row r="197" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E197" s="15"/>
-      <c r="F197" s="16"/>
+    <row r="197" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="E197" s="9"/>
+      <c r="F197" s="10"/>
       <c r="G197" t="s">
         <v>6</v>
       </c>
@@ -27673,9 +28665,9 @@
         <v>0.94826926199999995</v>
       </c>
     </row>
-    <row r="198" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E198" s="15"/>
-      <c r="F198" s="16"/>
+    <row r="198" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="E198" s="9"/>
+      <c r="F198" s="10"/>
       <c r="G198" t="s">
         <v>7</v>
       </c>
@@ -27825,9 +28817,9 @@
         <v>0.94827586200000002</v>
       </c>
     </row>
-    <row r="199" spans="5:63" x14ac:dyDescent="0.25">
-      <c r="E199" s="17"/>
-      <c r="F199" s="18"/>
+    <row r="199" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="E199" s="11"/>
+      <c r="F199" s="12"/>
       <c r="G199" t="s">
         <v>8</v>
       </c>
@@ -27977,19 +28969,138 @@
         <v>928</v>
       </c>
     </row>
+    <row r="204" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <f>MAX(L7,L12,L17,L22,L27,L32,L39,L44,L49,L54,L59,L64,L72,L77,L82,L87,L92,L97,L105,L110,L115,L120,L125,L130,L138,L143,L148,L153,L158,L163,L171,L176,L181,L186,L191,L196)</f>
+        <v>0.75084403600000005</v>
+      </c>
+      <c r="S204">
+        <f t="shared" ref="M204:BK204" si="3">MAX(S7,S12,S17,S22,S27,S32,S39,S44,S49,S54,S59,S64,S72,S77,S82,S87,S92,S97,S105,S110,S115,S120,S125,S130,S138,S143,S148,S153,S158,S163,S171,S176,S181,S186,S191,S196)</f>
+        <v>0.88463324899999995</v>
+      </c>
+      <c r="Z204">
+        <f t="shared" si="3"/>
+        <v>0.75074142300000002</v>
+      </c>
+      <c r="AG204">
+        <f t="shared" si="3"/>
+        <v>0.94831633199999998</v>
+      </c>
+      <c r="AN204">
+        <f t="shared" si="3"/>
+        <v>0.95257159800000002</v>
+      </c>
+      <c r="AU204">
+        <f t="shared" si="3"/>
+        <v>0.89663266399999997</v>
+      </c>
+      <c r="BB204">
+        <f t="shared" si="3"/>
+        <v>0.89325880000000002</v>
+      </c>
+      <c r="BI204">
+        <f t="shared" si="3"/>
+        <v>0.94399945900000004</v>
+      </c>
+    </row>
+    <row r="208" spans="4:63" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <v>0.75074142300000002</v>
+      </c>
+      <c r="E208" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <v>0.75084403600000005</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <v>0.88463324899999995</v>
+      </c>
+      <c r="E210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <v>0.89325880000000002</v>
+      </c>
+      <c r="E211" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <v>0.89663266399999997</v>
+      </c>
+      <c r="E212" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <v>0.94399945900000004</v>
+      </c>
+      <c r="E213" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <v>0.94831633199999998</v>
+      </c>
+      <c r="E214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <v>0.95257159800000002</v>
+      </c>
+      <c r="E215" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D208:D215">
+    <sortCondition ref="D208"/>
+  </sortState>
   <mergeCells count="50">
-    <mergeCell ref="E175:F179"/>
-    <mergeCell ref="E180:F184"/>
-    <mergeCell ref="E185:F189"/>
-    <mergeCell ref="E190:F194"/>
-    <mergeCell ref="E195:F199"/>
-    <mergeCell ref="E152:F156"/>
-    <mergeCell ref="E157:F161"/>
-    <mergeCell ref="E162:F166"/>
-    <mergeCell ref="A137:C142"/>
-    <mergeCell ref="E171:F174"/>
-    <mergeCell ref="A170:C175"/>
+    <mergeCell ref="AI2:AN4"/>
+    <mergeCell ref="AP2:AU4"/>
+    <mergeCell ref="AW2:BB4"/>
+    <mergeCell ref="BD2:BI4"/>
+    <mergeCell ref="E21:F25"/>
+    <mergeCell ref="N2:S4"/>
+    <mergeCell ref="U2:Z4"/>
+    <mergeCell ref="AB2:AG4"/>
+    <mergeCell ref="G2:L4"/>
+    <mergeCell ref="E7:F10"/>
+    <mergeCell ref="A1:C6"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="E43:F47"/>
+    <mergeCell ref="E48:F52"/>
+    <mergeCell ref="E53:F57"/>
+    <mergeCell ref="E26:F30"/>
+    <mergeCell ref="E31:F35"/>
+    <mergeCell ref="E11:F15"/>
+    <mergeCell ref="E16:F20"/>
+    <mergeCell ref="E58:F62"/>
+    <mergeCell ref="E63:F67"/>
+    <mergeCell ref="A39:C43"/>
+    <mergeCell ref="E72:F75"/>
+    <mergeCell ref="E76:F80"/>
+    <mergeCell ref="E81:F85"/>
+    <mergeCell ref="E86:F90"/>
+    <mergeCell ref="E91:F95"/>
+    <mergeCell ref="E96:F100"/>
+    <mergeCell ref="A71:C75"/>
     <mergeCell ref="E129:F133"/>
     <mergeCell ref="A104:C108"/>
     <mergeCell ref="E138:F141"/>
@@ -28000,37 +29111,20 @@
     <mergeCell ref="E114:F118"/>
     <mergeCell ref="E119:F123"/>
     <mergeCell ref="E124:F128"/>
-    <mergeCell ref="E81:F85"/>
-    <mergeCell ref="E86:F90"/>
-    <mergeCell ref="E91:F95"/>
-    <mergeCell ref="E96:F100"/>
-    <mergeCell ref="A71:C75"/>
-    <mergeCell ref="E58:F62"/>
-    <mergeCell ref="E63:F67"/>
-    <mergeCell ref="A39:C43"/>
-    <mergeCell ref="E72:F75"/>
-    <mergeCell ref="E76:F80"/>
-    <mergeCell ref="A1:C6"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="E43:F47"/>
-    <mergeCell ref="E48:F52"/>
-    <mergeCell ref="E53:F57"/>
-    <mergeCell ref="E26:F30"/>
-    <mergeCell ref="E31:F35"/>
-    <mergeCell ref="N2:S4"/>
-    <mergeCell ref="U2:Z4"/>
-    <mergeCell ref="AB2:AG4"/>
-    <mergeCell ref="G2:L4"/>
-    <mergeCell ref="E7:F10"/>
-    <mergeCell ref="E11:F15"/>
-    <mergeCell ref="E16:F20"/>
-    <mergeCell ref="AI2:AN4"/>
-    <mergeCell ref="AP2:AU4"/>
-    <mergeCell ref="AW2:BB4"/>
-    <mergeCell ref="BD2:BI4"/>
-    <mergeCell ref="E21:F25"/>
+    <mergeCell ref="E152:F156"/>
+    <mergeCell ref="E157:F161"/>
+    <mergeCell ref="E162:F166"/>
+    <mergeCell ref="A137:C142"/>
+    <mergeCell ref="E171:F174"/>
+    <mergeCell ref="A170:C175"/>
+    <mergeCell ref="E175:F179"/>
+    <mergeCell ref="E180:F184"/>
+    <mergeCell ref="E185:F189"/>
+    <mergeCell ref="E190:F194"/>
+    <mergeCell ref="E195:F199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>